--- a/CWIC Backup/Polarace/Balancer.xlsx
+++ b/CWIC Backup/Polarace/Balancer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\ColdWarIronCurtain\CWIC Backup\Polarace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FBBC6C-359C-4824-A2F0-10F6FFA4C0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4614DFC-4C11-4623-8AA2-BDAEBFDFEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1545" windowWidth="26775" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="4965" windowWidth="26775" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,13 +268,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +560,7 @@
   <dimension ref="A1:AP11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,60 +608,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="11" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11" t="s">
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11" t="s">
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -775,7 +775,7 @@
       <c r="AK2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AL2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AM2" s="6" t="s">

--- a/CWIC Backup/Polarace/Balancer.xlsx
+++ b/CWIC Backup/Polarace/Balancer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luke\Documents\GitHub\ColdWarIronCurtain\CWIC Backup\Polarace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4614DFC-4C11-4623-8AA2-BDAEBFDFEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C598D7A-27E8-4C0C-9A10-FE15E98E120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="4965" windowWidth="26775" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>sfx_ui_sd_module_turret</t>
   </si>
   <si>
-    <t>Steel</t>
-  </si>
-  <si>
     <t>Reliability_A</t>
   </si>
   <si>
@@ -183,7 +180,109 @@
     <t>Convert Cost IC</t>
   </si>
   <si>
-    <t>Penut</t>
+    <t>tank_light_cannon1</t>
+  </si>
+  <si>
+    <t>lc2</t>
+  </si>
+  <si>
+    <t>tank_light_cannon2</t>
+  </si>
+  <si>
+    <t>lc3</t>
+  </si>
+  <si>
+    <t>tank_light_cannon3</t>
+  </si>
+  <si>
+    <t>lc4</t>
+  </si>
+  <si>
+    <t>tank_light_cannon4</t>
+  </si>
+  <si>
+    <t>lc5</t>
+  </si>
+  <si>
+    <t>tank_light_cannon5</t>
+  </si>
+  <si>
+    <t>lc6</t>
+  </si>
+  <si>
+    <t>tank_light_cannon6</t>
+  </si>
+  <si>
+    <t>lc7</t>
+  </si>
+  <si>
+    <t>tank_light_cannon7</t>
+  </si>
+  <si>
+    <t>lc8</t>
+  </si>
+  <si>
+    <t>tank_light_cannon8</t>
+  </si>
+  <si>
+    <t>lc9</t>
+  </si>
+  <si>
+    <t>tank_light_cannon9</t>
+  </si>
+  <si>
+    <t>lc10</t>
+  </si>
+  <si>
+    <t>Steel_R</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,5</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>10,5</t>
+  </si>
+  <si>
+    <t>-0,1</t>
+  </si>
+  <si>
+    <t>-0,2</t>
+  </si>
+  <si>
+    <t>-0,3</t>
   </si>
 </sst>
 </file>
@@ -236,10 +335,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -248,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,10 +379,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -557,297 +671,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="10" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1945</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1940</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="AK3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL3">
-        <v>5</v>
+      <c r="S3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1942</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
+      <c r="S4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1944</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1950</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="M6" s="8"/>
+      <c r="S6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1960</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="S9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1990</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
